--- a/Knitwear/bin/Debug/Данные_План_Месяц.xlsx
+++ b/Knitwear/bin/Debug/Данные_План_Месяц.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Наименование</t>
   </si>
@@ -29,19 +29,13 @@
     <t>Статус</t>
   </si>
   <si>
-    <t>21</t>
+    <t>1</t>
   </si>
   <si>
-    <t>04.05.2023</t>
+    <t>25.06.2023</t>
   </si>
   <si>
-    <t>1221</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>Не выполнено</t>
+    <t>Задача выполнена ✓</t>
   </si>
 </sst>
 </file>
@@ -118,13 +112,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
